--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>2重のfor分が理解できたような、微妙</t>
+  </si>
+  <si>
+    <t>遷移形式の工夫</t>
+  </si>
+  <si>
+    <t>比較的理解しやすかった</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -215,9 +221,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -584,12 +587,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="20" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -597,1246 +600,1256 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>4.6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="23.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="23.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="23.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="23.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="23.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="23.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="23.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="23.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="23.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="23.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="23.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="23.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="23.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="23.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="23.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="23.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="23.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="23.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="23.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="23.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="23.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="23.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="23.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="23.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="23.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="23.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="23.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="23.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="23.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="23.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="23.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="9"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="23.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="9"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="23.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="23.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="23.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="23.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="23.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="23.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="9"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="23.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="9"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="23.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="23.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="9"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="9"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="9"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="9"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="9"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="9"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="9"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="9"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="9"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="9"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="9"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="9"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="9"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="9"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="9"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="9"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="9"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="9"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="9"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="9"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="9"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="9"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="9"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="9"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="9"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="9"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="9"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="9"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="9"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="9"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="9"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="9"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="9"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="9"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="21">
       <c r="A104" s="1"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="9"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="21">
       <c r="A105" s="1"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="9"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="20.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="9"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="20.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="9"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="20.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="9"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="20.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="9"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="20.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="9"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="20.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="9"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="20.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="9"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="20.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="9"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="20.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="9"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="1"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="9"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="1"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="9"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="1"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="9"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="1"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="9"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="1"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="9"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="1"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="9"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="9"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="1"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="9"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="23.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="9"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="1"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="9"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="1"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="9"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="23.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="9"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="1"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="9"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="1"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="9"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="1"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="9"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="1"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="9"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="1"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="9"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="1"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="9"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="1"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="9"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="1"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="9"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="1"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="9"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="1"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="9"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="1"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="9"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="20.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="9"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="20.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="9"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="20.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="9"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="20.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="9"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="20.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="9"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="20.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="9"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="20.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="9"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="20.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="9"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="20.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="9"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="20.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="9"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="20.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="9"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="20.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="9"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="20.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="9"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="20.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="9"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="9"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="9"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -51,6 +51,15 @@
   <si>
     <t>比較的理解しやすかった</t>
   </si>
+  <si>
+    <t>'4.10</t>
+  </si>
+  <si>
+    <t>チャレンジ問題</t>
+  </si>
+  <si>
+    <t>道筋はおおよそ合っていた</t>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +79,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -220,9 +223,6 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -241,10 +241,13 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -601,127 +604,137 @@
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>4.6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>4.7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
@@ -729,7 +742,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
@@ -737,1119 +750,1119 @@
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="23.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="23.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="23.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="23.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="23.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="23.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="23.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="23.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="23.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="23.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="23.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="23.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="23.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="23.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="23.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="23.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="23.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="23.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="23.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="23.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="23.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="23.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="23.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="23.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="23.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="23.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="23.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="23.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="23.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="23.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="23.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="23.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="8"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="23.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="8"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="23.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="23.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="23.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="8"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="23.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="23.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="23.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="23.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="23.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="8"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="8"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="8"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="8"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="8"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="8"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="8"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="8"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="8"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="8"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="8"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="8"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="8"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="8"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="8"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="8"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="8"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="8"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="8"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="8"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="8"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="8"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="8"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="8"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="8"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="8"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="8"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="8"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="8"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="8"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="8"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="8"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="8"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="8"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="8"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="8"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="8"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="8"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="8"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="21">
       <c r="A104" s="1"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="8"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="21">
       <c r="A105" s="1"/>
       <c r="B105" s="19"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="20.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="8"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="20.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="8"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="20.25">
       <c r="A108" s="1"/>
       <c r="B108" s="19"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="20.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="8"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="20.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="8"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="20.25">
       <c r="A111" s="1"/>
       <c r="B111" s="19"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="20.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="8"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="20.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="8"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="20.25">
       <c r="A114" s="1"/>
       <c r="B114" s="19"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="1"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="8"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="1"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="8"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="1"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="8"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="1"/>
       <c r="B118" s="19"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="1"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="8"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="1"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="8"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1"/>
       <c r="B121" s="19"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="1"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="8"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="23.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="8"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="1"/>
       <c r="B124" s="19"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="1"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="8"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="23.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="8"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="1"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="8"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="1"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="8"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="1"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="8"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="1"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="8"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="1"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="8"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="1"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="8"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="1"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="8"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="1"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="8"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="1"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="8"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="1"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="8"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="1"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="8"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="20.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="8"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="20.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="8"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="20.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="8"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="20.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="8"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="20.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="8"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="20.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="8"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="20.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="8"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="20.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="8"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="20.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="8"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="20.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="8"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="20.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="8"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="20.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="8"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="20.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="8"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="20.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="8"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="8"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="8"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>道筋はおおよそ合っていた</t>
+  </si>
+  <si>
+    <t>数学的問題</t>
+  </si>
+  <si>
+    <t>素数判定</t>
+  </si>
+  <si>
+    <t>答えを見て納得</t>
   </si>
 </sst>
 </file>
@@ -690,11 +699,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>答えを見て納得</t>
+  </si>
+  <si>
+    <t>最大公約数</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>既に方法を知っていた</t>
   </si>
 </sst>
 </file>
@@ -717,11 +726,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>既に方法を知っていた</t>
+  </si>
+  <si>
+    <t>余りの計算</t>
+  </si>
+  <si>
+    <t>納得した</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
@@ -706,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
@@ -724,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>15</v>
@@ -744,11 +750,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>納得した</t>
+  </si>
+  <si>
+    <t>余りの計算 累乗</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>ansの処理の理解があいまい</t>
   </si>
 </sst>
 </file>
@@ -768,11 +777,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>ansの処理の理解があいまい</t>
+  </si>
+  <si>
+    <t>余りの計算 割り算</t>
+  </si>
+  <si>
+    <t>5.4の処理以外は理解できた</t>
   </si>
 </sst>
 </file>
@@ -795,11 +801,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>5.4の処理以外は理解できた</t>
+  </si>
+  <si>
+    <t>包除原理</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -781,7 +784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
@@ -799,7 +802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -819,10 +822,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>包除原理</t>
+  </si>
+  <si>
+    <t>ゲーム(1) 必勝法</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -219,17 +222,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -254,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -292,22 +284,19 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -632,12 +621,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -838,18 +827,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1574,7 +1573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="21">
       <c r="A105" s="1"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="8"/>
       <c r="D105" s="7"/>
       <c r="E105" s="9"/>
@@ -1598,7 +1597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="20.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="8"/>
       <c r="D108" s="7"/>
       <c r="E108" s="9"/>
@@ -1622,7 +1621,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="20.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="8"/>
       <c r="D111" s="7"/>
       <c r="E111" s="9"/>
@@ -1646,7 +1645,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="20.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="8"/>
       <c r="D114" s="7"/>
       <c r="E114" s="11"/>
@@ -1678,7 +1677,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="1"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="8"/>
       <c r="D118" s="7"/>
       <c r="E118" s="11"/>
@@ -1702,7 +1701,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="8"/>
       <c r="D121" s="7"/>
       <c r="E121" s="11"/>
@@ -1726,7 +1725,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="1"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="8"/>
       <c r="D124" s="7"/>
       <c r="E124" s="11"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>ゲーム(1) 必勝法</t>
+  </si>
+  <si>
+    <t>'5.10</t>
+  </si>
+  <si>
+    <t>道筋は思いつかなかったが、答えを見て納得した</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -231,22 +237,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -290,13 +285,10 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -621,12 +613,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -809,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>15</v>
@@ -825,7 +817,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
         <v>15</v>
@@ -845,11 +837,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
@@ -1573,7 +1575,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="21">
       <c r="A105" s="1"/>
-      <c r="B105" s="18"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="8"/>
       <c r="D105" s="7"/>
       <c r="E105" s="9"/>
@@ -1597,7 +1599,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="20.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="18"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="8"/>
       <c r="D108" s="7"/>
       <c r="E108" s="9"/>
@@ -1621,7 +1623,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="20.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="8"/>
       <c r="D111" s="7"/>
       <c r="E111" s="9"/>
@@ -1645,7 +1647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="20.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="8"/>
       <c r="D114" s="7"/>
       <c r="E114" s="11"/>
@@ -1677,7 +1679,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="1"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="8"/>
       <c r="D118" s="7"/>
       <c r="E118" s="11"/>
@@ -1701,7 +1703,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="8"/>
       <c r="D121" s="7"/>
       <c r="E121" s="11"/>
@@ -1725,7 +1727,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="1"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="8"/>
       <c r="D124" s="7"/>
       <c r="E124" s="11"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>道筋は思いつかなかったが、答えを見て納得した</t>
+  </si>
+  <si>
+    <t>考察テクニック</t>
+  </si>
+  <si>
+    <t>偶奇を考える</t>
+  </si>
+  <si>
+    <t>▲</t>
+  </si>
+  <si>
+    <t>解答方針が合っていたが、根拠までは不明だった。</t>
   </si>
 </sst>
 </file>
@@ -835,7 +847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>15</v>
@@ -855,11 +867,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
@@ -925,7 +947,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -933,7 +955,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -941,7 +963,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -949,7 +971,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>解答方針が合っていたが、根拠までは不明だった。</t>
+  </si>
+  <si>
+    <t>足された回数を考える</t>
+  </si>
+  <si>
+    <t>道筋は思いつかなかったが、答えを見て納得した。あと掛け算のところで型のデータ範囲で躓いた。</t>
   </si>
 </sst>
 </file>
@@ -885,11 +891,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>道筋は思いつかなかったが、答えを見て納得した。あと掛け算のところで型のデータ範囲で躓いた。</t>
+  </si>
+  <si>
+    <t>上限値を考える</t>
+  </si>
+  <si>
+    <t>解答方針が合っていた。</t>
   </si>
 </sst>
 </file>
@@ -909,11 +915,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>解答方針が合っていた。</t>
+  </si>
+  <si>
+    <t>一手先を考える</t>
   </si>
 </sst>
 </file>
@@ -933,11 +936,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>一手先を考える</t>
+  </si>
+  <si>
+    <t>個数を考える</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>32</v>
@@ -898,7 +901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>32</v>
@@ -916,7 +919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="23.25">
       <c r="A17" s="1"/>
       <c r="B17" s="7" t="s">
         <v>32</v>
@@ -934,7 +937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="23.25">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
         <v>32</v>
@@ -954,11 +957,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>個数を考える</t>
+  </si>
+  <si>
+    <t>後ろから考える</t>
   </si>
 </sst>
 </file>
@@ -975,11 +978,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>後ろから考える</t>
+  </si>
+  <si>
+    <t>固定して全探索</t>
   </si>
 </sst>
 </file>
@@ -996,11 +999,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>固定して全探索</t>
+  </si>
+  <si>
+    <t>問題を言い換える</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="23.25">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>32</v>
@@ -979,7 +982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="23.25">
       <c r="A20" s="1"/>
       <c r="B20" s="7" t="s">
         <v>32</v>
@@ -997,7 +1000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="23.25">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>32</v>
@@ -1017,11 +1020,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>問題を言い換える</t>
+  </si>
+  <si>
+    <t>データの持ち方を工夫する</t>
   </si>
 </sst>
 </file>
@@ -1038,11 +1041,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>データの持ち方を工夫する</t>
+  </si>
+  <si>
+    <t>データ構造とクエリ処理</t>
+  </si>
+  <si>
+    <t>スタック</t>
+  </si>
+  <si>
+    <t>解答方針が合っていた。(使用するライブラリは初めて)</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="23.25">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>32</v>
@@ -1039,7 +1048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="23.25">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>32</v>
@@ -1059,11 +1068,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
@@ -1089,7 +1108,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -1097,7 +1116,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -1105,7 +1124,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -1113,7 +1132,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -1121,7 +1140,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -1129,7 +1148,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -1137,7 +1156,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
@@ -1145,7 +1164,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
@@ -1153,7 +1172,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -1086,11 +1086,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>解答方針が合っていた。(使用するライブラリは初めて)</t>
+  </si>
+  <si>
+    <t>キュー</t>
+  </si>
+  <si>
+    <t>優先度付きキュー</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1096,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="8">
-        <v>8.1</v>
+        <v>8.2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>34</v>
@@ -1104,11 +1110,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -1128,11 +1128,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>優先度付きキュー</t>
+  </si>
+  <si>
+    <t>連想配列</t>
+  </si>
+  <si>
+    <t>Set</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="23.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>46</v>
@@ -1090,7 +1096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="23.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>46</v>
@@ -1108,7 +1114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="23.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>46</v>
@@ -1126,7 +1132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="23.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>46</v>
@@ -1135,7 +1141,7 @@
         <v>8.4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>34</v>
@@ -1146,11 +1152,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>'8.10</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="23.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>46</v>
@@ -1170,11 +1173,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
@@ -1232,7 +1245,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -1240,7 +1253,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
@@ -1248,7 +1261,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -1256,7 +1269,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>'8.10</t>
+  </si>
+  <si>
+    <t>グラフアルゴリズム</t>
+  </si>
+  <si>
+    <t>グラフの実装方法</t>
   </si>
 </sst>
 </file>
@@ -1191,11 +1197,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>グラフの実装方法</t>
+  </si>
+  <si>
+    <t>深さ優先探索</t>
+  </si>
+  <si>
+    <t>道筋は思いつかなかったが、答えを見て納得した(再帰関数はループ処理に変更)</t>
   </si>
 </sst>
 </file>
@@ -1215,11 +1221,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>道筋は思いつかなかったが、答えを見て納得した(再帰関数はループ処理に変更)</t>
+  </si>
+  <si>
+    <t>幅優先探索</t>
   </si>
 </sst>
 </file>
@@ -1239,11 +1242,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="8">
+        <v>9.3</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>幅優先探索</t>
+  </si>
+  <si>
+    <t>ダイクストラ法</t>
+  </si>
+  <si>
+    <t>道筋は思いつかなかったが、答えを見ておおよそ納得。</t>
   </si>
 </sst>
 </file>
@@ -1260,11 +1266,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>道筋は思いつかなかったが、答えを見ておおよそ納得。</t>
+  </si>
+  <si>
+    <t>木に対する動的計画法</t>
   </si>
 </sst>
 </file>
@@ -1284,11 +1287,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>

--- a/src/tessoku/鉄則問題一覧.xlsx
+++ b/src/tessoku/鉄則問題一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
   <si>
     <t>〇：自力のみ、▲：ヒント見て解答、△：答え見て納得、×：答え見たけど理解できてない</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>木に対する動的計画法</t>
+  </si>
+  <si>
+    <t>Union-Find 木</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="23.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7" t="s">
         <v>46</v>
@@ -1213,7 +1216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="23.25">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
         <v>54</v>
@@ -1231,7 +1234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="23.25">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>54</v>
@@ -1249,7 +1252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="23.25">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>54</v>
@@ -1267,7 +1270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="23.25">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>54</v>
@@ -1285,7 +1288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="23.25">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
         <v>54</v>
@@ -1305,11 +1308,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
@@ -1351,7 +1364,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -1359,7 +1372,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -1367,7 +1380,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -1375,7 +1388,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -1383,7 +1396,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -1391,7 +1404,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -1399,7 +1412,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
@@ -1407,7 +1420,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
